--- a/����� ������.xlsx
+++ b/����� ������.xlsx
@@ -460,11 +460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50865152"/>
-        <c:axId val="78225408"/>
+        <c:axId val="553593856"/>
+        <c:axId val="111400576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50865152"/>
+        <c:axId val="553593856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78225408"/>
+        <c:crossAx val="111400576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -481,7 +481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78225408"/>
+        <c:axId val="111400576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50865152"/>
+        <c:crossAx val="553593856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -748,11 +748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="571430912"/>
-        <c:axId val="78227136"/>
+        <c:axId val="574359040"/>
+        <c:axId val="111402304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="571430912"/>
+        <c:axId val="574359040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78227136"/>
+        <c:crossAx val="111402304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -769,7 +769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78227136"/>
+        <c:axId val="111402304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,7 +780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571430912"/>
+        <c:crossAx val="574359040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1027,11 +1027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="571432448"/>
-        <c:axId val="78228864"/>
+        <c:axId val="574359552"/>
+        <c:axId val="555476096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="571432448"/>
+        <c:axId val="574359552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78228864"/>
+        <c:crossAx val="555476096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1048,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78228864"/>
+        <c:axId val="555476096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571432448"/>
+        <c:crossAx val="574359552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:X104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
